--- a/監視設定チェックシート_Zabbix.xlsx
+++ b/監視設定チェックシート_Zabbix.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="チェック対象" sheetId="1" r:id="rId1"/>
     <sheet name="監視設定チェックシート(Zabbix)" sheetId="2" r:id="rId2"/>
     <sheet name="検査ルール" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="69">
   <si>
     <t>項目ID</t>
   </si>
@@ -235,10 +235,21 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>Linux Syslog の取得サイズ。全ホスト検査の場合は未使用</t>
-  </si>
-  <si>
     <t>x &gt; 0</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Linux Syslog の取得サイズ。全ホスト検査の場合は別シートに登録</t>
+    <rPh sb="30" eb="31">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>トウロク</t>
+    </rPh>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -291,6 +302,7 @@
     <font>
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -995,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1257,9 +1269,11 @@
       <c r="D16" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="F16" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -1541,7 +1555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -1618,7 +1632,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F7" s="12"/>
     </row>

--- a/監視設定チェックシート_Zabbix.xlsx
+++ b/監視設定チェックシート_Zabbix.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="74">
   <si>
     <t>項目ID</t>
   </si>
@@ -249,6 +249,29 @@
     </rPh>
     <rPh sb="35" eb="37">
       <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>trigger</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>トリガー</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Zabbix</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>トリガー定義</t>
+    <rPh sb="4" eb="6">
+      <t>テイギ</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
@@ -1008,7 +1031,7 @@
   <dimension ref="A1:AMK49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1277,12 +1300,24 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="6"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="A17" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>

--- a/監視設定チェックシート_Zabbix.xlsx
+++ b/監視設定チェックシート_Zabbix.xlsx
@@ -11,7 +11,7 @@
     <sheet name="監視設定チェックシート(Zabbix)" sheetId="2" r:id="rId2"/>
     <sheet name="検査ルール" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="67">
   <si>
     <t>項目ID</t>
   </si>
@@ -77,24 +77,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>HostGroup</t>
-  </si>
-  <si>
-    <t>ホストグループ</t>
-  </si>
-  <si>
-    <t>ホストグループ構成数。詳細は別シートに登録</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>ユーザー</t>
-  </si>
-  <si>
-    <t>ユーザー構成数。詳細は別シートに登録</t>
-  </si>
-  <si>
     <t>Host</t>
   </si>
   <si>
@@ -120,12 +102,6 @@
   </si>
   <si>
     <t>適用テンプレート</t>
-  </si>
-  <si>
-    <t>host</t>
-  </si>
-  <si>
-    <t>ホスト名</t>
   </si>
   <si>
     <t>name</t>
@@ -188,9 +164,6 @@
     <t>適用テンプレート。全ホスト検査の場合は未使用</t>
   </si>
   <si>
-    <t>ホスト名。全ホスト検査の場合は未使用</t>
-  </si>
-  <si>
     <t>表示名。全ホスト検査の場合は未使用</t>
   </si>
   <si>
@@ -235,21 +208,7 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>x &gt; 0</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>Y</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Linux Syslog の取得サイズ。全ホスト検査の場合は別シートに登録</t>
-    <rPh sb="30" eb="31">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>トウロク</t>
-    </rPh>
     <phoneticPr fontId="6"/>
   </si>
   <si>
@@ -272,6 +231,52 @@
     <t>トリガー定義</t>
     <rPh sb="4" eb="6">
       <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>x == 'Log exist'</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>syslog</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Syslog監視</t>
+    <rPh sb="6" eb="8">
+      <t>カンシ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Syslog の取得有無。ログサイズが0の場合はエラーとなり、ログ採取に失敗している可能性がある。詳細は別シートに登録</t>
+    <rPh sb="8" eb="10">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ウム</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>サイシュ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="42" eb="45">
+      <t>カノウセイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
@@ -748,7 +753,7 @@
   <dimension ref="B4:M16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -804,16 +809,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -828,16 +833,16 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -852,7 +857,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>5</v>
@@ -903,13 +908,13 @@
         <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1028,10 +1033,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK49"/>
+  <dimension ref="A1:AMK46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1112,9 +1117,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="A6" s="6"/>
       <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
@@ -1124,200 +1127,170 @@
       <c r="D6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="6"/>
+      <c r="B7" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
       <c r="B8" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
       <c r="B9" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
       <c r="B11" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
       <c r="B12" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="6"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="B13" s="5" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5" t="s">
         <v>55</v>
       </c>
+      <c r="E13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="6"/>
+      <c r="A14" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="B14" s="5" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="5"/>
+        <v>61</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="F14" s="5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
-      <c r="B15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="5" t="s">
-        <v>57</v>
-      </c>
+      <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>68</v>
-      </c>
+      <c r="A16" s="6"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>73</v>
-      </c>
+      <c r="A17" s="6"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
@@ -1349,7 +1322,7 @@
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
@@ -1357,7 +1330,7 @@
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
@@ -1365,7 +1338,7 @@
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+      <c r="F23" s="7"/>
     </row>
     <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="6"/>
@@ -1408,7 +1381,7 @@
       <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A29" s="6"/>
+      <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -1416,7 +1389,7 @@
       <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A30" s="6"/>
+      <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -1424,7 +1397,7 @@
       <c r="F30" s="7"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A31" s="6"/>
+      <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -1464,27 +1437,27 @@
       <c r="F35" s="7"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
       <c r="F36" s="7"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
       <c r="F37" s="7"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
       <c r="F38" s="7"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -1517,7 +1490,7 @@
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
-      <c r="F42" s="7"/>
+      <c r="F42" s="5"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="6"/>
@@ -1533,7 +1506,7 @@
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
-      <c r="F44" s="7"/>
+      <c r="F44" s="5"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="6"/>
@@ -1541,39 +1514,15 @@
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
-      <c r="F45" s="5"/>
+      <c r="F45" s="7"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="7"/>
-    </row>
-    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="5"/>
-    </row>
-    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="7"/>
-    </row>
-    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="9"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6"/>
@@ -1591,7 +1540,7 @@
   <dimension ref="A4:F16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1617,57 +1566,57 @@
         <v>14</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="13"/>
       <c r="B5" s="14" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="13"/>
       <c r="B6" s="14" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A7" s="13"/>
       <c r="B7" s="9" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F7" s="12"/>
     </row>

--- a/監視設定チェックシート_Zabbix.xlsx
+++ b/監視設定チェックシート_Zabbix.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="チェック対象" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="65">
   <si>
     <t xml:space="preserve">項目ID</t>
   </si>
@@ -45,12 +45,6 @@
     <t xml:space="preserve">jenkins</t>
   </si>
   <si>
-    <t xml:space="preserve">ip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">検査対象監視ホスト名。空白の場合は全ホストを検査</t>
-  </si>
-  <si>
     <t xml:space="preserve">platform</t>
   </si>
   <si>
@@ -199,6 +193,30 @@
   </si>
   <si>
     <t xml:space="preserve">x == 'AllEnabled'</t>
+  </si>
+  <si>
+    <t>alpaca1</t>
+  </si>
+  <si>
+    <t>jenkins</t>
+  </si>
+  <si>
+    <t>Zabbix</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>RuleAP</t>
   </si>
 </sst>
 </file>
@@ -270,7 +288,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,8 +301,18 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -313,6 +341,48 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -343,7 +413,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="276">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -391,6 +461,798 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -410,20 +1272,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B4:M16"/>
+  <dimension ref="B4:M65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.59278350515464"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.5927835051546"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.8247422680412"/>
-    <col collapsed="false" hidden="false" max="8" min="4" style="0" width="14.1855670103093"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.2731958762887"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.59278350515464"/>
+    <col min="1" max="1" hidden="false" style="0" width="8.45360824742268" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="14.4587628865979" collapsed="true"/>
+    <col min="3" max="3" hidden="false" style="0" width="36.8247422680412" collapsed="true"/>
+    <col min="4" max="8" hidden="false" style="0" width="14.0463917525773" collapsed="true"/>
+    <col min="9" max="9" hidden="false" style="0" width="12.2731958762887" collapsed="true"/>
+    <col min="10" max="1025" hidden="false" style="0" width="8.45360824742268" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -433,35 +1295,11 @@
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="H4" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="I4" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="J4" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="K4" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="L4" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="M4" s="1" t="n">
-        <v>10</v>
+      <c r="D4" t="n" s="252">
+        <v>1.0</v>
+      </c>
+      <c r="E4" t="n" s="253">
+        <v>2.0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -471,219 +1309,128 @@
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" t="s" s="254">
+        <v>57</v>
+      </c>
+      <c r="E5" t="s" s="255">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" t="s" s="256">
+        <v>59</v>
+      </c>
+      <c r="E6" t="s" s="257">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="52.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" customFormat="false" ht="52.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" t="s" s="258">
+        <v>60</v>
+      </c>
+      <c r="E7" t="s" s="259">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="D8" t="s" s="260">
+        <v>64</v>
+      </c>
+      <c r="E8" t="s" s="261">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="1"/>
       <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" t="s" s="262">
+        <v>61</v>
+      </c>
+      <c r="E9" t="s" s="263">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="1"/>
-      <c r="C10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" t="s" s="264">
+        <v>61</v>
+      </c>
+      <c r="E10" t="s" s="265">
+        <v>61</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
+      <c r="D11" t="s" s="266">
+        <v>61</v>
+      </c>
+      <c r="E11" t="s" s="267">
+        <v>61</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
+      <c r="D12" t="s" s="268">
+        <v>61</v>
+      </c>
+      <c r="E12" t="s" s="269">
+        <v>61</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
+      <c r="D13" t="s" s="270">
+        <v>61</v>
+      </c>
+      <c r="E13" t="s" s="271">
+        <v>61</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
+      <c r="D14" t="s" s="272">
+        <v>61</v>
+      </c>
+      <c r="E14" t="s" s="273">
+        <v>61</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-    </row>
+      <c r="D15" t="s" s="274">
+        <v>61</v>
+      </c>
+      <c r="E15" t="s" s="275">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -708,15 +1455,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="4.5"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="19.5051546391753"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="22.2319587628866"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="12.4123711340206"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="6.41237113402062"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="47.7319587628866"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="3" width="8.59278350515464"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="8.59278350515464"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="3" width="8.59278350515464"/>
+    <col min="1" max="1" hidden="false" style="3" width="4.3659793814433" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="3" width="19.5051546391753" collapsed="true"/>
+    <col min="3" max="3" hidden="false" style="3" width="22.2319587628866" collapsed="true"/>
+    <col min="4" max="4" hidden="false" style="3" width="12.4123711340206" collapsed="true"/>
+    <col min="5" max="5" hidden="false" style="3" width="6.41237113402062" collapsed="true"/>
+    <col min="6" max="6" hidden="false" style="3" width="47.5979381443299" collapsed="true"/>
+    <col min="7" max="8" hidden="false" style="3" width="8.45360824742268" collapsed="true"/>
+    <col min="9" max="10" hidden="false" style="0" width="8.45360824742268" collapsed="true"/>
+    <col min="11" max="1025" hidden="false" style="3" width="8.45360824742268" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -745,194 +1492,194 @@
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="D5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6"/>
       <c r="B7" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6"/>
       <c r="B8" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6"/>
       <c r="B9" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6"/>
       <c r="B10" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6"/>
       <c r="B11" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6"/>
       <c r="B12" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1209,100 +1956,100 @@
   </sheetPr>
   <dimension ref="A4:F16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.59278350515464"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.639175257732"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.9587628865979"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.54639175257732"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.0927835051546"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.2319587628866"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.59278350515464"/>
+    <col min="1" max="1" hidden="false" style="0" width="8.45360824742268" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="16.5" collapsed="true"/>
+    <col min="3" max="3" hidden="false" style="0" width="27.9587628865979" collapsed="true"/>
+    <col min="4" max="4" hidden="false" style="0" width="9.54639175257732" collapsed="true"/>
+    <col min="5" max="5" hidden="false" style="0" width="16.0927835051546" collapsed="true"/>
+    <col min="6" max="6" hidden="false" style="0" width="16.2319587628866" collapsed="true"/>
+    <col min="7" max="1025" hidden="false" style="0" width="8.45360824742268" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8"/>
       <c r="B4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>21</v>
-      </c>
       <c r="E4" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8"/>
       <c r="B5" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8"/>
       <c r="B6" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8"/>
       <c r="B7" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8"/>
       <c r="B8" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F8" s="10"/>
     </row>
